--- a/app/注文書.xlsx
+++ b/app/注文書.xlsx
@@ -215,7 +215,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -584,29 +584,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -619,12 +605,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,6 +628,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -659,15 +642,43 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -903,32 +914,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="23.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1"/>
@@ -937,446 +948,458 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="36">
         <v>41813</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="41" t="s">
         <v>26</v>
       </c>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>27</v>
       </c>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="16.5">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="42" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44" t="s">
         <v>28</v>
       </c>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43" t="s">
         <v>29</v>
       </c>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43" t="s">
         <v>30</v>
       </c>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:11" ht="16.5">
       <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="42" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
-      <c r="F11" s="9"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="21.75">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="str">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="str">
         <f>"￥ "&amp;FIXED(G27,-1)&amp;" -"</f>
         <v>￥ 1,925,000 -</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="9.75" customHeight="1"/>
     <row r="14" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A15" s="18">
+      <c r="A15" s="47">
         <v>1</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="18">
+      <c r="C15" s="49"/>
+      <c r="D15" s="47">
         <v>1</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="50">
         <v>500000</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="50">
         <f t="shared" ref="G15:G24" si="0">IF(AND(F15="",D15=""),"",SUM(D15*F15))</f>
         <v>500000</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="47">
         <v>2</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="18">
+      <c r="C16" s="49"/>
+      <c r="D16" s="47">
         <v>1</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="50">
         <v>600000</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="50">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A17" s="18">
+      <c r="A17" s="47">
         <v>3</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="18">
+      <c r="C17" s="49"/>
+      <c r="D17" s="47">
         <v>1</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="50">
         <v>650000</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="50">
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21" t="str">
+      <c r="A18" s="12"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="str">
+      <c r="A19" s="12"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="str">
+      <c r="A20" s="12"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21" t="str">
+      <c r="A21" s="12"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21" t="str">
+      <c r="A22" s="12"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21" t="str">
+      <c r="A23" s="12"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21" t="str">
+      <c r="A24" s="12"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="20" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="14">
         <f>SUM(G15:G24)</f>
         <v>1750000</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="20" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="13">
         <f>G25*0.1</f>
         <v>175000</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="20" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="13">
         <f>G25+G26</f>
         <v>1925000</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" ht="54" customHeight="1"/>
     <row r="29" spans="1:11" ht="30" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="3:6" ht="13.5" customHeight="1"/>
     <row r="34" spans="3:6" ht="13.5" customHeight="1">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="3:6" ht="13.5" customHeight="1">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="3:6" ht="13.5" customHeight="1"/>
     <row r="37" spans="3:6" ht="13.5" customHeight="1"/>
@@ -2377,12 +2400,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/app/注文書.xlsx
+++ b/app/注文書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>注　文　書</t>
   </si>
@@ -75,16 +75,7 @@
     <t>金額</t>
   </si>
   <si>
-    <t>システム開発支援(担当太郎)2018/7/1～2018/7/31</t>
-  </si>
-  <si>
     <t>人・月</t>
-  </si>
-  <si>
-    <t>システム開発支援(担当次郎)2018/7/1～2018/7/31</t>
-  </si>
-  <si>
-    <t>システム開発支援(担当三郎)2018/7/1～2018/7/31</t>
   </si>
   <si>
     <t>小計</t>
@@ -631,17 +622,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -673,13 +653,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -898,7 +889,7 @@
   <dimension ref="A1:K999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -914,32 +905,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="23.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1"/>
@@ -948,100 +939,100 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="31">
         <v>41813</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="40"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="40"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="40"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="16.5">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:11" ht="16.5">
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
@@ -1053,8 +1044,8 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="str">
-        <f>"￥ "&amp;FIXED(G27,-1)&amp;" -"</f>
-        <v>￥ 1,925,000 -</v>
+        <f>"￥ "&amp;ROUND(G27,0)&amp;" -"</f>
+        <v>￥ 0 -</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
@@ -1066,14 +1057,14 @@
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1086,78 +1077,39 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A15" s="47">
-        <v>1</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47">
-        <v>1</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="50">
-        <v>500000</v>
-      </c>
-      <c r="G15" s="50">
-        <f t="shared" ref="G15:G24" si="0">IF(AND(F15="",D15=""),"",SUM(D15*F15))</f>
-        <v>500000</v>
-      </c>
+      <c r="A15" s="42"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A16" s="47">
-        <v>2</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="47">
-        <v>1</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="50">
-        <v>600000</v>
-      </c>
-      <c r="G16" s="50">
-        <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
+      <c r="A16" s="42"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A17" s="47">
-        <v>3</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="47">
-        <v>1</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="50">
-        <v>650000</v>
-      </c>
-      <c r="G17" s="50">
-        <f t="shared" si="0"/>
-        <v>650000</v>
-      </c>
+      <c r="A17" s="42"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1165,13 +1117,13 @@
     </row>
     <row r="18" spans="1:11" ht="40.5" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G15:G24" si="0">IF(AND(F18="",D18=""),"",SUM(D18*F18))</f>
         <v/>
       </c>
       <c r="H18" s="11"/>
@@ -1181,8 +1133,8 @@
     </row>
     <row r="19" spans="1:11" ht="40.5" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
@@ -1197,8 +1149,8 @@
     </row>
     <row r="20" spans="1:11" ht="40.5" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
@@ -1213,8 +1165,8 @@
     </row>
     <row r="21" spans="1:11" ht="40.5" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
@@ -1229,8 +1181,8 @@
     </row>
     <row r="22" spans="1:11" ht="40.5" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
@@ -1245,8 +1197,8 @@
     </row>
     <row r="23" spans="1:11" ht="40.5" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
@@ -1261,8 +1213,8 @@
     </row>
     <row r="24" spans="1:11" ht="40.5" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
@@ -1282,11 +1234,11 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G25" s="14">
         <f>SUM(G15:G24)</f>
-        <v>1750000</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1300,11 +1252,11 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G26" s="13">
         <f>G25*0.1</f>
-        <v>175000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1318,11 +1270,11 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G27" s="13">
         <f>G25+G26</f>
-        <v>1925000</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1332,7 +1284,7 @@
     <row r="28" spans="1:11" ht="54" customHeight="1"/>
     <row r="29" spans="1:11" ht="30" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1347,7 +1299,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1362,7 +1314,7 @@
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -2401,12 +2353,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="13.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.5" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.5" customHeight="1"/>
